--- a/src/main/resources/static/statics/excel/edu_user_template.xlsx
+++ b/src/main/resources/static/statics/excel/edu_user_template.xlsx
@@ -21,10 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
-    <t>学号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +62,10 @@
   </si>
   <si>
     <t>13800138002@139.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学号或工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +405,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -417,19 +417,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -437,16 +437,16 @@
         <v>1501110101</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>13800138001</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -454,16 +454,16 @@
         <v>1501110102</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3">
         <v>13800138002</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -471,16 +471,16 @@
         <v>1501110103</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>13800138003</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
